--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-4.808674055564617</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.7377727202063</v>
+        <v>-10.33277542410035</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.33201997166406</v>
+        <v>-3.191159885389929</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.908516167160336</v>
+        <v>-7.307707206399648</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.727963404649408</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.3296626393779</v>
+        <v>-10.89350566250863</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.361530022269311</v>
+        <v>-3.289888941119385</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.754026993627969</v>
+        <v>-7.193359033380013</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.583622314797293</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.48594545839958</v>
+        <v>-11.05019434291841</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.264987381114422</v>
+        <v>-3.190204147282483</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.357578971277661</v>
+        <v>-6.816549465292295</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.376589714314512</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.93448775375712</v>
+        <v>-11.51163255657505</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.406934128524417</v>
+        <v>-3.333931447878952</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.04158314988976</v>
+        <v>-6.52008735974425</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.105465344421086</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.33101432992447</v>
+        <v>-11.93634686076064</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.434532702914775</v>
+        <v>-3.414213448904416</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.740460184530062</v>
+        <v>-6.238851602401132</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.77752424478394</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.92293043370175</v>
+        <v>-12.48187693556968</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.243070866157373</v>
+        <v>-3.291316002129133</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.372186797895149</v>
+        <v>-5.923955534451936</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.393425245409628</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.47230964554626</v>
+        <v>-13.05928676779833</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.125161586764788</v>
+        <v>-3.284298527805968</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.185097790286884</v>
+        <v>-5.761637163820216</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.958660946631014</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.85016659786132</v>
+        <v>-13.47961515053194</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.260130136760142</v>
+        <v>-3.40119969987974</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.967202594092036</v>
+        <v>-5.618053878555007</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.47793123778214</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.61926083599567</v>
+        <v>-14.15795354536745</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.104894701965796</v>
+        <v>-3.275356484965069</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.898415634961608</v>
+        <v>-5.582560645551087</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.957909386867886</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0493822612549</v>
+        <v>-14.60317039580319</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.136866105505291</v>
+        <v>-3.356960808577548</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.914034752251787</v>
+        <v>-5.590376750347598</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.415034532988051</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.64364188724084</v>
+        <v>-15.16100723528345</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.170657339139786</v>
+        <v>-3.394051302528158</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.535352984857703</v>
+        <v>-5.331528830863832</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.8672386028901315</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.72391079596347</v>
+        <v>-15.24279485113572</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.357693977536685</v>
+        <v>-3.488695559770996</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.085344351581893</v>
+        <v>-4.882305735758527</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3404806090106351</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.47269887239031</v>
+        <v>-15.93253664174637</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.984039654433823</v>
+        <v>-3.18479702620885</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.698060941220795</v>
+        <v>-4.518955054992103</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1441538375747777</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.09762067163157</v>
+        <v>-16.53251760407415</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.945364991839364</v>
+        <v>-3.119911573325256</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.614126187702489</v>
+        <v>-4.470264780723724</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5737776384505344</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.88619625639442</v>
+        <v>-17.29769724365883</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.696231561064159</v>
+        <v>-2.926708460289905</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.360881773834982</v>
+        <v>-4.227153809255713</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9389781241301198</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.4072960941008</v>
+        <v>-17.80908259265665</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.612493192088479</v>
+        <v>-2.79462021691973</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.19391563569445</v>
+        <v>-3.984514160690004</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.240300580923276</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.87326424454067</v>
+        <v>-18.22759114529527</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.62160543486632</v>
+        <v>-2.878685893466453</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.136872472213049</v>
+        <v>-3.896848100861806</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.478039456006757</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.52526092605863</v>
+        <v>-18.79903088742808</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.374933357025359</v>
+        <v>-2.658473359668621</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.800112258518171</v>
+        <v>-3.532685697319195</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.656820602758783</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.89591711181074</v>
+        <v>-19.11981849165606</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.164134188970728</v>
+        <v>-2.415480218926185</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.554566118721598</v>
+        <v>-3.157368651755434</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.781854928306165</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.62199004280718</v>
+        <v>-19.8027784693947</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.897299964753509</v>
+        <v>-2.17394032379918</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.634311335330552</v>
+        <v>-3.118104835533098</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.855547612146341</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.26888072621687</v>
+        <v>-20.36616644527986</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.633031831893268</v>
+        <v>-1.977961642561383</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.668901199438392</v>
+        <v>-3.09392335218443</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.880958283298789</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.47031889773966</v>
+        <v>-20.56116320380452</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.516183029030863</v>
+        <v>-1.849081013387432</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.603570608258179</v>
+        <v>-2.920463431834401</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.859462841743259</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.06408101621762</v>
+        <v>-21.09036717696993</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.373804235627092</v>
+        <v>-1.649056810571541</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.806003794796948</v>
+        <v>-3.069283638236301</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.793731965616141</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.28438519613535</v>
+        <v>-21.25548730040978</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.180705861014474</v>
+        <v>-1.460213434382484</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.784833541101876</v>
+        <v>-3.080817957039862</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.685968008172922</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.35576443122844</v>
+        <v>-21.36980928882373</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.207571266445696</v>
+        <v>-1.470962215015541</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.977107100635465</v>
+        <v>-3.288618987743738</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.539666784800182</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.44527650575732</v>
+        <v>-21.45085064341402</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.9664241404039435</v>
+        <v>-1.307792844699109</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.141559516630386</v>
+        <v>-3.529556636940023</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.359607939087823</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.3207032442183</v>
+        <v>-21.37309545683701</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.9654291253879723</v>
+        <v>-1.255070141155478</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.171789643891932</v>
+        <v>-3.564015578019446</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.154181821695465</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.4407203843684</v>
+        <v>-21.42973275893031</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8277897456129062</v>
+        <v>-1.102819751409046</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.469403872090049</v>
+        <v>-3.875769493286627</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9335856515468143</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.49968811636753</v>
+        <v>-21.4682895907992</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.8801851415854939</v>
+        <v>-1.193614871616416</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.631041442973999</v>
+        <v>-4.059559240578777</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7083497184238459</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.32887284119153</v>
+        <v>-21.31004292635125</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9593804814750949</v>
+        <v>-1.260765292891629</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.677780964118961</v>
+        <v>-4.104649131565682</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.4881218350177837</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.15141976847478</v>
+        <v>-21.19345596954568</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.0558969380243</v>
+        <v>-1.347527983823748</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.919307766943124</v>
+        <v>-4.419309538063726</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2791238198691656</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.17893978904809</v>
+        <v>-21.14978004726569</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.101445059610664</v>
+        <v>-1.421250741125507</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.836053813172588</v>
+        <v>-4.327820525805745</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.08660362679415991</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.75930529836508</v>
+        <v>-20.75673602365423</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.292186819711772</v>
+        <v>-1.566431287337408</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.724782331320758</v>
+        <v>-4.260591550713482</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.08828148451073124</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.47532015742521</v>
+        <v>-20.49131576814391</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.317271671956519</v>
+        <v>-1.596700691507478</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.731145190501837</v>
+        <v>-4.225242333040821</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.2446487536274584</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.23944922942866</v>
+        <v>-20.25831205446972</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.470215953753563</v>
+        <v>-1.769885673497831</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.516928931405515</v>
+        <v>-4.119338695354099</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.3817394281446753</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.92235365460206</v>
+        <v>-19.97292603712577</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.493035837606691</v>
+        <v>-1.775764117473766</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.447788480098359</v>
+        <v>-3.943482883584034</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.4978010968901322</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.57619316746682</v>
+        <v>-19.65496637031161</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.613066070059636</v>
+        <v>-1.846331629790669</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.979476807449818</v>
+        <v>-3.580446418085812</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.5873039251948187</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.45072962933456</v>
+        <v>-19.52518237224158</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.55340444600989</v>
+        <v>-1.784208652806679</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.630082521512675</v>
+        <v>-3.244956157766582</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.6471149835451914</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.06364260351609</v>
+        <v>-19.1544083557639</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.590468755354816</v>
+        <v>-1.924636693087033</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.717709304432347</v>
+        <v>-3.396486470856719</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.6780633841756801</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.63829986879409</v>
+        <v>-18.78249530893899</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.462098725991692</v>
+        <v>-1.7833052839106</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.322819266120205</v>
+        <v>-2.986985422573211</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.6841453920038078</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.06481772741797</v>
+        <v>-18.23439914277296</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.600013044126435</v>
+        <v>-1.88911727547743</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.279143343840207</v>
+        <v>-2.889264474162568</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.6707761358452835</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.64468572922698</v>
+        <v>-17.88563328737223</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.907197745701854</v>
+        <v>-2.16862484884544</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.197264081868052</v>
+        <v>-2.799608384302428</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.6441643805078808</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.47211608547019</v>
+        <v>-17.70526063112176</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.05667256724584</v>
+        <v>-2.283824021549787</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.955488525289897</v>
+        <v>-2.619733235559953</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.6133108136155698</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.19712535658257</v>
+        <v>-17.53428824831166</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.052731784090481</v>
+        <v>-2.19813489945069</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.879212768934001</v>
+        <v>-2.567442578010099</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.589900838675354</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.69286222033065</v>
+        <v>-17.11287320444218</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.170732709602958</v>
+        <v>-2.321634592156692</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.714328306945303</v>
+        <v>-2.378782494060827</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.5836042250425865</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.65253792757813</v>
+        <v>-17.18556166981945</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.015667474745554</v>
+        <v>-2.228338842106552</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.634242690462465</v>
+        <v>-2.260611368611407</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.6033009635444652</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.51923210004368</v>
+        <v>-17.05763677875294</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.165967111368569</v>
+        <v>-2.364289314815036</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.399091839122223</v>
+        <v>-2.0405952193562</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.6535698057900667</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.09654710279855</v>
+        <v>-16.60428960825249</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.182397951434936</v>
+        <v>-2.389832397659243</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.402194714895712</v>
+        <v>-1.996277774236958</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.7365202608788622</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.75110669231961</v>
+        <v>-16.32770161841819</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.360204516328417</v>
+        <v>-2.575808559525962</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.217279029559172</v>
+        <v>-1.811348996597577</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.854940642903203</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.26857677878495</v>
+        <v>-15.87593861656159</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.512900044371468</v>
+        <v>-2.682091873995094</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.055261781892813</v>
+        <v>-1.717176062257042</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.007120239739947</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.04657059949781</v>
+        <v>-15.71380353816966</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.410845543720214</v>
+        <v>-2.589961338897868</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.941607500923789</v>
+        <v>-1.666168450385677</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.195063418052739</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.56360863996937</v>
+        <v>-15.2596708294987</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.323153299286333</v>
+        <v>-2.471685475025715</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.930020812908861</v>
+        <v>-1.685113012597654</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.41664878751636</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.18776790229194</v>
+        <v>-14.92607895309152</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.518189334719526</v>
+        <v>-2.677378644972073</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.137651643675795</v>
+        <v>-1.879546802100128</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.669744776533728</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.82953631193663</v>
+        <v>-14.54125689566467</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.53096742229305</v>
+        <v>-2.698352514124518</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.166782017498635</v>
+        <v>-1.911518205639623</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.953542771282128</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.91700598722221</v>
+        <v>-14.63264116949992</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.409654144161617</v>
+        <v>-2.53520932841377</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.076209466439574</v>
+        <v>-1.796855817351786</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.261874986186153</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.76762281179811</v>
+        <v>-14.4859811930669</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.579710065772796</v>
+        <v>-2.688101240999447</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.216860075868238</v>
+        <v>-1.985110039912966</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.59550299690405</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.64065365883905</v>
+        <v>-14.40704769923413</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.432041982020968</v>
+        <v>-2.551574706965927</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.567118453792935</v>
+        <v>-2.330105312095289</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.94946507495817</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.28856235851651</v>
+        <v>-14.07318088446728</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.448237160636183</v>
+        <v>-2.540616449487402</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.943116299104466</v>
+        <v>-2.560294180658517</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.321251662305595</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.0287587009253</v>
+        <v>-13.76022247733866</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.490682406449059</v>
+        <v>-2.593116583882724</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.053916458053994</v>
+        <v>-2.732366316907322</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.70794091670385</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.02151865745383</v>
+        <v>-13.77521316409243</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.309956258021873</v>
+        <v>-2.456760249786147</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.228816531716612</v>
+        <v>-2.894632318327675</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.099677985942502</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.879310063987</v>
+        <v>-13.58888351004899</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.293499233349823</v>
+        <v>-2.438417933504889</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.398204745882864</v>
+        <v>-3.068694484608423</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.492142789194959</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.819255670852</v>
+        <v>-13.49294311482482</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.332291726669857</v>
+        <v>-2.527065916046216</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.342850489468046</v>
+        <v>-3.062056687067668</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.872747793762915</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.61124516330266</v>
+        <v>-13.2782555328262</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.201538898189539</v>
+        <v>-2.40004439387579</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.423328875036137</v>
+        <v>-3.146999547904787</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.230588246541101</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.58720769528525</v>
+        <v>-13.16973343457113</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.211030817749791</v>
+        <v>-2.380720154881402</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.676534011995119</v>
+        <v>-3.413061326254344</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.55367888065365</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.48853100876716</v>
+        <v>-13.09929684528264</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.232201071444861</v>
+        <v>-2.439373671612335</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.606149791917999</v>
+        <v>-3.3684296658669</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.825714407310319</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.65190985592906</v>
+        <v>-13.17180201842012</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.377983863587481</v>
+        <v>-2.565923870880459</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.563468884653972</v>
+        <v>-3.315209454815284</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.03658296704555</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.72630032067575</v>
+        <v>-13.23124107332156</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.355844779482123</v>
+        <v>-2.619536851017327</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.583814323270015</v>
+        <v>-3.421414215467366</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.172797495815781</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.5939371389459</v>
+        <v>-13.04086589770002</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.169881709918245</v>
+        <v>-2.421188462965177</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.411833833141101</v>
+        <v>-3.254330246601258</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.225668611218522</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.69524537833517</v>
+        <v>-13.17795540075573</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.461552032626219</v>
+        <v>-2.686805103018116</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.434470424754445</v>
+        <v>-3.203519019272519</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.191361237135803</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.58690657231989</v>
+        <v>-13.08616526553239</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.473230366761038</v>
+        <v>-2.724327642962503</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.197630666347621</v>
+        <v>-3.046463754383173</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.066427717317221</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.73483650212855</v>
+        <v>-13.21007081962649</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.541074680086863</v>
+        <v>-2.790744895278579</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.340703351802003</v>
+        <v>-3.063797963345618</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.856428342020941</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.91921540304858</v>
+        <v>-13.34404435460587</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.498210480583052</v>
+        <v>-2.793756124932176</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.25239576913456</v>
+        <v>-2.957737218024795</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.567904470523795</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.16901654126871</v>
+        <v>-13.58148635894341</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.540537895670352</v>
+        <v>-2.853731964250123</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.294094753685458</v>
+        <v>-3.021954963463461</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.211070213743552</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.29993956968597</v>
+        <v>-13.82561853003308</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.600003135177472</v>
+        <v>-2.931277673981667</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.189002838774923</v>
+        <v>-2.87547827927023</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.80172261360192</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.45112948290222</v>
+        <v>-13.96018121864034</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.774026024549695</v>
+        <v>-3.089563615338135</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.917795785408567</v>
+        <v>-2.517050304372296</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.351582669520277</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.92115624722303</v>
+        <v>-14.44818371476284</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.835847878568325</v>
+        <v>-3.213168046466871</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.638550058097392</v>
+        <v>-2.248461711574285</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.877233296259445</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.73015582441897</v>
+        <v>-15.22392884274079</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.089183938555725</v>
+        <v>-3.426768967329632</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.528823467980886</v>
+        <v>-2.097926413500119</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.389235709716665</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06956068328788</v>
+        <v>-15.64169113411743</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.974626288690622</v>
+        <v>-3.34749507362298</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.590069260674481</v>
+        <v>-2.077004913559041</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.893810681289232</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.4066482045538</v>
+        <v>-16.08782444575208</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.187166733023203</v>
+        <v>-3.555950719468942</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.441340700392473</v>
+        <v>-1.902824916552717</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.399445473564241</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.00771582801744</v>
+        <v>-16.72147881098878</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.330448895323053</v>
+        <v>-3.706734771297102</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.198897436369389</v>
+        <v>-1.631041801861326</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.906491845856305</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.69216832828004</v>
+        <v>-17.42233596671207</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.576702019473078</v>
+        <v>-3.9617335537454</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.210012801482015</v>
+        <v>-1.638792445143628</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.421610770654707</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.51302953185058</v>
+        <v>-18.26113362517577</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.807218195607349</v>
+        <v>-4.198835158209059</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.383485814134885</v>
+        <v>-1.715735908944451</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.9482498927986368</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.29978528651842</v>
+        <v>-19.03911753693966</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.004270445678168</v>
+        <v>-4.428644349989877</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.173118692074031</v>
+        <v>-1.485599409592591</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4908962879039477</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.17397143956332</v>
+        <v>-19.94498706286153</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.16258257164032</v>
+        <v>-4.595230811347999</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.19177522362349</v>
+        <v>-1.500144958049748</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.05987642502598516</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.2772990769441</v>
+        <v>-21.16618470272637</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.345652242276175</v>
+        <v>-4.813505684325256</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.173197245891081</v>
+        <v>-1.465083771039606</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3377945023665326</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.37867596120146</v>
+        <v>-22.25225668496175</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.392719070992181</v>
+        <v>-4.863033865975506</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.39528197899528</v>
+        <v>-1.709071926798013</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6884403387769686</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.71753412670489</v>
+        <v>-23.6551885805726</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.457931831446818</v>
+        <v>-4.901577605541548</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.45102900449535</v>
+        <v>-1.71284251001643</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.9826959987696039</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.09150584842984</v>
+        <v>-25.01475876917164</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.724111440521951</v>
+        <v>-5.163698600735746</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.608319930835847</v>
+        <v>-1.845192599443439</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.211403807284366</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.65307717757387</v>
+        <v>-26.55768665906906</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.809499439655688</v>
+        <v>-5.263867809777792</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.869092418837347</v>
+        <v>-2.044876402385445</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.365571077565809</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.17088093831801</v>
+        <v>-28.09300792101543</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.013569164049673</v>
+        <v>-5.513066702067206</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.053013089157915</v>
+        <v>-2.309000519914427</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.440064717658464</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.93523894617755</v>
+        <v>-29.79286015277377</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.190446175441392</v>
+        <v>-5.661926185377631</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.378081876415131</v>
+        <v>-2.542239895039776</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.429989928022509</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.6794609922665</v>
+        <v>-31.51520496081421</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.344084349289047</v>
+        <v>-5.817593666165754</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.76642576330641</v>
+        <v>-2.979902486735837</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>1.337181291940059</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.37814800907194</v>
+        <v>-33.16285818114259</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.310751346254013</v>
+        <v>-5.772556144390216</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.102793207916036</v>
+        <v>-3.391760149530856</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.16702425036886</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.36383139647084</v>
+        <v>-35.15417125876344</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.512019317839868</v>
+        <v>-5.987728141593984</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.358734636168939</v>
+        <v>-3.58263283266038</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.927743845291259</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.2354415492098</v>
+        <v>-36.9819483815883</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.810864222505106</v>
+        <v>-6.311212760207352</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.8645164795505</v>
+        <v>-4.170411768739672</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.6366656612305096</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.35306916464761</v>
+        <v>-39.0767299285673</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.813639790707553</v>
+        <v>-6.299390410741274</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.216070995456529</v>
+        <v>-4.499918846660234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.3036640576796879</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.64475894636619</v>
+        <v>-41.32762409463106</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.001776182543156</v>
+        <v>-6.506837949268423</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.697344047918379</v>
+        <v>-5.016370916857802</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04170844560101246</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.6119298175469</v>
+        <v>-43.26929115987608</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.15578094087038</v>
+        <v>-6.617271523738382</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.900196188148082</v>
+        <v>-5.286635324419553</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3981718506721958</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79047591810728</v>
+        <v>-45.36773855165078</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.278063049412101</v>
+        <v>-6.732955111647874</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.053677254361637</v>
+        <v>-5.381030827908398</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.7210069405554324</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.000757760756</v>
+        <v>-47.53361130306037</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.394571452400622</v>
+        <v>-6.872388136912257</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.537817521145826</v>
+        <v>-5.856373067182947</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.04254227639531</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.23215748788842</v>
+        <v>-49.67983250790452</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.768788744525678</v>
+        <v>-7.295753933905152</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.983597340603756</v>
+        <v>-6.291116075345302</v>
       </c>
     </row>
   </sheetData>
